--- a/HW/sourcing.xlsx
+++ b/HW/sourcing.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Softcar-ELEC\Documents\Git\LED-PCB-V1\HW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{6CAE6B9E-5B58-4B72-B6D5-FC4261F1073E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873F1108-F070-4228-934C-F816675DC80D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sourcing" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>Reference</t>
   </si>
@@ -118,21 +118,12 @@
     <t>7A</t>
   </si>
   <si>
-    <t>0440007.WRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,39	</t>
-  </si>
-  <si>
     <t>Connecteur USB C : J1</t>
   </si>
   <si>
     <t>USB_C_Receptacle</t>
   </si>
   <si>
-    <t>10164359-00011LF</t>
-  </si>
-  <si>
     <t>Connecteurs de sortie : J5, J7</t>
   </si>
   <si>
@@ -167,13 +158,40 @@
   </si>
   <si>
     <t>0.929</t>
+  </si>
+  <si>
+    <t>216990-0002</t>
+  </si>
+  <si>
+    <t>Porte fusible</t>
+  </si>
+  <si>
+    <t>0031.8201.G</t>
+  </si>
+  <si>
+    <t>Porte fuse 5*20mm</t>
+  </si>
+  <si>
+    <t>5MF 7-R</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.406	</t>
+  </si>
+  <si>
+    <t>0235007.MXP</t>
+  </si>
+  <si>
+    <t>0.541</t>
+  </si>
+  <si>
+    <t>BK1/GMA-7-R</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,8 +326,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -489,8 +513,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -605,6 +635,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -650,8 +695,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1006,237 +1058,333 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="51" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="41.140625" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="32.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="30.140625" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>0.307</v>
       </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>8.98</v>
       </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>0.216</v>
       </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>0.82099999999999995</v>
       </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E6" t="s">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>2.89</v>
       </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" t="s">
-        <v>33</v>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9">
+      <c r="A9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="1">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9">
-        <v>0.45100000000000001</v>
-      </c>
+      <c r="C9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" t="s">
-        <v>40</v>
-      </c>
+      <c r="A10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" t="s">
-        <v>44</v>
-      </c>
+      <c r="A11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" t="s">
-        <v>48</v>
-      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HW/sourcing.xlsx
+++ b/HW/sourcing.xlsx
@@ -8,14 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Softcar-ELEC\Documents\Git\LED-PCB-V1\HW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873F1108-F070-4228-934C-F816675DC80D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFD8F31-F038-4720-AE4A-FAE999068FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sourcing" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -52,9 +63,6 @@
     <t>Prix 3 CHF</t>
   </si>
   <si>
-    <t>Réducteur 1</t>
-  </si>
-  <si>
     <t>5v to 3v3</t>
   </si>
   <si>
@@ -64,24 +72,15 @@
     <t>AZ1117CR-3.3TRG1</t>
   </si>
   <si>
-    <t>Réducteur/DCDC 2</t>
-  </si>
-  <si>
     <t>12v to 5v</t>
   </si>
   <si>
-    <t>TSR-1-2450SM</t>
-  </si>
-  <si>
     <t>Condensateurs : C1, C2, C3, C4, C6, C7, C9, C10, C11, C15</t>
   </si>
   <si>
     <t>100nF</t>
   </si>
   <si>
-    <t>C0402C103K1RACAUTO</t>
-  </si>
-  <si>
     <t>Condensateurs : C5, C8</t>
   </si>
   <si>
@@ -100,9 +99,6 @@
     <t>GRM155C71C105KE11D</t>
   </si>
   <si>
-    <t>0.09</t>
-  </si>
-  <si>
     <t>Microcontrôleur</t>
   </si>
   <si>
@@ -133,9 +129,6 @@
     <t>39-30-3041</t>
   </si>
   <si>
-    <t xml:space="preserve">0.776	</t>
-  </si>
-  <si>
     <t>Connecteur d'alimentation</t>
   </si>
   <si>
@@ -185,13 +178,31 @@
   </si>
   <si>
     <t>BK1/GMA-7-R</t>
+  </si>
+  <si>
+    <t>TSR-1-2450</t>
+  </si>
+  <si>
+    <t>DCDC</t>
+  </si>
+  <si>
+    <t>Régulateur</t>
+  </si>
+  <si>
+    <t>MCASU105SB7104KFNA01</t>
+  </si>
+  <si>
+    <t>Nb PCB</t>
+  </si>
+  <si>
+    <t>EMZS250ARA102MJA0G</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -331,6 +342,13 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -695,7 +713,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -704,6 +722,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1059,10 +1086,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1112,19 +1139,19 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="F2" s="1">
         <v>0.307</v>
@@ -1136,22 +1163,23 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="1">
-        <v>8.98</v>
+        <v>49</v>
+      </c>
+      <c r="F3" s="4">
+        <f>4.99*1</f>
+        <v>4.99</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -1160,20 +1188,21 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1">
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
-        <v>19</v>
+      <c r="E4" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="F4" s="1">
-        <v>0.216</v>
+        <f>0.049*B4</f>
+        <v>0.49</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -1182,42 +1211,49 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F5" s="1">
-        <v>0.82099999999999995</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+        <f>0.821*2</f>
+        <v>1.6419999999999999</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="1">
+        <f>0.785*2</f>
+        <v>1.57</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+      <c r="F6" s="1">
+        <f>0.09*3</f>
+        <v>0.27</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1226,17 +1262,17 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F7" s="1">
         <v>2.89</v>
@@ -1248,47 +1284,47 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F8" s="1">
         <v>0.54100000000000004</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F9" s="1">
         <v>0.76700000000000002</v>
@@ -1300,17 +1336,17 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F10" s="1">
         <v>0.83699999999999997</v>
@@ -1322,20 +1358,21 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B11" s="1">
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
+      </c>
+      <c r="F11" s="1">
+        <f>0.776*2</f>
+        <v>1.552</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -1344,20 +1381,20 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1366,27 +1403,44 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <f>SUM(F2:F13)</f>
+        <v>14.286</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="290" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/HW/sourcing.xlsx
+++ b/HW/sourcing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Softcar-ELEC\Documents\Git\LED-PCB-V1\HW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFD8F31-F038-4720-AE4A-FAE999068FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73568265-2200-461B-B00A-88C4F9DC1077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>Reference</t>
   </si>
@@ -196,6 +196,12 @@
   </si>
   <si>
     <t>EMZS250ARA102MJA0G</t>
+  </si>
+  <si>
+    <t>Diamètre à définir</t>
+  </si>
+  <si>
+    <t>BK1/HTC-100M</t>
   </si>
 </sst>
 </file>
@@ -728,7 +734,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1089,7 +1095,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1329,8 +1335,12 @@
       <c r="F9" s="1">
         <v>0.76700000000000002</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.72199999999999998</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
@@ -1396,7 +1406,9 @@
       <c r="F12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>

--- a/HW/sourcing.xlsx
+++ b/HW/sourcing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Softcar-ELEC\Documents\Git\LED-PCB-V1\HW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvien\Documents\Git\LED-PCB-V1\HW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73568265-2200-461B-B00A-88C4F9DC1077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD92E50-52E3-4E65-9D02-C6C98479D606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sourcing" sheetId="1" r:id="rId1"/>
@@ -198,10 +198,10 @@
     <t>EMZS250ARA102MJA0G</t>
   </si>
   <si>
-    <t>Diamètre à définir</t>
-  </si>
-  <si>
     <t>BK1/HTC-100M</t>
+  </si>
+  <si>
+    <t>694106301002</t>
   </si>
 </sst>
 </file>
@@ -719,7 +719,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -735,6 +735,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1094,24 +1097,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="51" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="41.140625" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" customWidth="1"/>
+    <col min="4" max="4" width="41.109375" customWidth="1"/>
+    <col min="5" max="5" width="25.88671875" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="32.28515625" customWidth="1"/>
+    <col min="7" max="7" width="32.33203125" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="30.140625" customWidth="1"/>
+    <col min="9" max="9" width="30.109375" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1143,7 +1146,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>51</v>
       </c>
@@ -1167,7 +1170,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>50</v>
       </c>
@@ -1192,7 +1195,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -1215,7 +1218,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1243,7 +1246,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1266,7 +1269,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -1288,7 +1291,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -1318,7 +1321,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -1336,7 +1339,7 @@
         <v>0.76700000000000002</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H9" s="1">
         <v>0.72199999999999998</v>
@@ -1344,7 +1347,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -1366,7 +1369,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
@@ -1389,7 +1392,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -1406,14 +1409,16 @@
       <c r="F12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" s="1"/>
+      <c r="G12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.92100000000000004</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
@@ -1435,24 +1440,24 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F14">
         <f>SUM(F2:F13)</f>
         <v>14.286</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="290" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="290" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/HW/sourcing.xlsx
+++ b/HW/sourcing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvien\Documents\Git\LED-PCB-V1\HW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Softcar-ELEC\Documents\Git\LED-PCB-V1\HW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD92E50-52E3-4E65-9D02-C6C98479D606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD78284B-76BE-45CE-9FEB-C0BF737E1C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sourcing" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
   <si>
     <t>Reference</t>
   </si>
@@ -147,12 +147,6 @@
     <t>0-3.3V to 0-5V</t>
   </si>
   <si>
-    <t>TXS0102DCT</t>
-  </si>
-  <si>
-    <t>0.929</t>
-  </si>
-  <si>
     <t>216990-0002</t>
   </si>
   <si>
@@ -202,6 +196,36 @@
   </si>
   <si>
     <t>694106301002</t>
+  </si>
+  <si>
+    <t>Relais</t>
+  </si>
+  <si>
+    <t>1N4148W_R1_00001</t>
+  </si>
+  <si>
+    <t>Diode de roue libre</t>
+  </si>
+  <si>
+    <t>MMBT3904-7-F</t>
+  </si>
+  <si>
+    <t>Transistor commande relais</t>
+  </si>
+  <si>
+    <t>AHQSH112LM1F00G</t>
+  </si>
+  <si>
+    <t>TS14-1212-140-BK-160-SCR-D</t>
+  </si>
+  <si>
+    <t>Bouton reset</t>
+  </si>
+  <si>
+    <t>SN74AHCT125DR</t>
+  </si>
+  <si>
+    <t>0.335</t>
   </si>
 </sst>
 </file>
@@ -719,7 +743,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -728,9 +752,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -740,6 +761,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1095,26 +1123,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G14" sqref="F14:G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51" customWidth="1"/>
-    <col min="3" max="3" width="25.109375" customWidth="1"/>
-    <col min="4" max="4" width="41.109375" customWidth="1"/>
-    <col min="5" max="5" width="25.88671875" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="41.140625" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="32.33203125" customWidth="1"/>
+    <col min="7" max="7" width="32.28515625" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="30.109375" customWidth="1"/>
+    <col min="9" max="9" width="30.140625" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1146,9 +1174,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -1170,9 +1198,9 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -1184,9 +1212,9 @@
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="4">
+        <v>47</v>
+      </c>
+      <c r="F3" s="7">
         <f>4.99*1</f>
         <v>4.99</v>
       </c>
@@ -1195,7 +1223,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -1206,8 +1234,8 @@
         <v>15</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="5" t="s">
-        <v>52</v>
+      <c r="E4" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="F4" s="1">
         <f>0.049*B4</f>
@@ -1218,7 +1246,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1237,7 +1265,7 @@
         <v>1.6419999999999999</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H5" s="1">
         <f>0.785*2</f>
@@ -1246,7 +1274,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1269,7 +1297,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -1291,7 +1319,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -1303,43 +1331,43 @@
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F8" s="1">
         <v>0.54100000000000004</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="J8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F9" s="1">
         <v>0.76700000000000002</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H9" s="1">
         <v>0.72199999999999998</v>
@@ -1347,7 +1375,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -1359,7 +1387,7 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F10" s="1">
         <v>0.83699999999999997</v>
@@ -1369,7 +1397,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
@@ -1392,7 +1420,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -1409,8 +1437,8 @@
       <c r="F12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>56</v>
+      <c r="G12" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="H12" s="1">
         <v>0.92100000000000004</v>
@@ -1418,7 +1446,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
@@ -1430,29 +1458,103 @@
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F14">
-        <f>SUM(F2:F13)</f>
-        <v>14.286</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="8">
+        <v>1</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="8">
+        <v>1</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.121</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="8">
+        <v>1</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0.251</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>10</v>
       </c>
     </row>
